--- a/biology/Zoologie/Haploblepharus_pictus/Haploblepharus_pictus.xlsx
+++ b/biology/Zoologie/Haploblepharus_pictus/Haploblepharus_pictus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haploblepharus pictus (Roussette sombre) est un requin de la famille des Scyliorhinidae qui se rencontre dans l'Atlantique sud, des côtes de la Namibie jusqu'à celles de la région du Cap (Afrique du Sud).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Haploblepharus pictus mesure jusqu'à 57 cm. Il s'agit d'un requin de fond ressemblant à une roussette. Son dos, brun-jaune, est taché de marques sombres.
 </t>
